--- a/biology/Médecine/Trotteur_(marche)/Trotteur_(marche).xlsx
+++ b/biology/Médecine/Trotteur_(marche)/Trotteur_(marche).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un trotteur, appelé aussi dans les années 1920[1] promenette ou trotte-bébé, est un petit appareil roulant, à hauteur d’appui pour les jeunes enfants qui le font avancer par leurs mouvements, sans courir le risque de tomber. Ce tuteur à roulettes est généralement conçu pour des enfants âgés entre 4  et   16 mois et est notamment utilisé pour favoriser leur apprentissage de la marche.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un trotteur, appelé aussi dans les années 1920 promenette ou trotte-bébé, est un petit appareil roulant, à hauteur d’appui pour les jeunes enfants qui le font avancer par leurs mouvements, sans courir le risque de tomber. Ce tuteur à roulettes est généralement conçu pour des enfants âgés entre 4  et   16 mois et est notamment utilisé pour favoriser leur apprentissage de la marche.
 Il peut aussi désigner plus spécifiquement un youpala qui est un appareil composé d'un cadre ou cerceau à roulettes et d'un dispositif destiné à soutenir le corps et les jambes d'un jeune enfant (généralement une assise ceinturée à ce cadre, ce harnais étant parfois suspendu à une tablette montée sur roues). Cependant, les professionnels de la petite enfance, notamment les psychomotriciens, contre-indiquent l'utilisation de cet outil. En effet, ce dernier nuirait à un développement psychomoteur fluide et harmonisé de l'enfant du fait du non-respect de son rythme développemental.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières traces iconographiques de trotteur remontent au XVe siècle : les jeunes garçons ou filles, tous en robe à cette époque, sont placés dans un tuteur de bois ou d’osier, muni de roulettes, appelé tintebin ou tourniquet. Ce dispositif devient un objet commun dans les foyers anglo-saxons dans les années 1960 avant de se répandre dans les pays occidentaux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières traces iconographiques de trotteur remontent au XVe siècle : les jeunes garçons ou filles, tous en robe à cette époque, sont placés dans un tuteur de bois ou d’osier, muni de roulettes, appelé tintebin ou tourniquet. Ce dispositif devient un objet commun dans les foyers anglo-saxons dans les années 1960 avant de se répandre dans les pays occidentaux.
 			Enluminure du Livre d'Heures de Catherine de Clèves (c. 1440) : dans La Sainte famille au travail, Jésus est en trotteur
 			Enfant dans un porteur, 1595/1596
 </t>
@@ -545,11 +559,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taux d'utilisation du trotteur varie entre 42 et 92 % selon les pays. Les motivations des parents quant à son usage sont : accélération de l'acquisition de la marche (13 à 72 %), commodité (9 à 34 %), amusement de l'enfant (11 à 26 %), aspect sécurisant à de nombreux parents (33 à 66 %)[3].
-De nombreuses publications médicales et de statistiques, dès le milieu des années 1960[4], montrent cependant des taux d'accidents élevés dus à la pratique du youpala et qu'il peut retarder l'acquisition de la marche en cas d'utilisation intensive ou trop précoce[5].
-En raison de ces dangers, la vente de porteurs pour bébés est interdite au Canada le 7 avril 2004[6]. Le Canada est le premier pays au monde à interdire la vente, l'importation et la publicité de porteurs pour bébés[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux d'utilisation du trotteur varie entre 42 et 92 % selon les pays. Les motivations des parents quant à son usage sont : accélération de l'acquisition de la marche (13 à 72 %), commodité (9 à 34 %), amusement de l'enfant (11 à 26 %), aspect sécurisant à de nombreux parents (33 à 66 %).
+De nombreuses publications médicales et de statistiques, dès le milieu des années 1960, montrent cependant des taux d'accidents élevés dus à la pratique du youpala et qu'il peut retarder l'acquisition de la marche en cas d'utilisation intensive ou trop précoce.
+En raison de ces dangers, la vente de porteurs pour bébés est interdite au Canada le 7 avril 2004. Le Canada est le premier pays au monde à interdire la vente, l'importation et la publicité de porteurs pour bébés.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Trotteurs, porteurs et draisiennes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite des nombreux accidents causés par les youpala, de nombreux parents se sont tournés vers les trotteurs à califourchon ou porteurs bébés pour l'apprentissage de la marche.
 Ces petits véhicules à roulettes sont par ailleurs une étape vers l'apprentissage du vélo en passant par la draisienne. 
